--- a/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>28,82%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>28,6%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,8%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>18,33%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>36,44%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>44,29%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>25,47%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,17%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>20,94%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>31,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>27,73%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>24,7%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,25%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>19,59%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>33,34%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>261</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>277775</v>
+        <v>277776</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,25%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,09%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>42,37%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>56,36%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>46,14%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>48,64%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>22,54%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,77%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,67%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>24,86%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>32,81%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>31,38%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>26,07%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>21,94%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,45%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>66,03%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>58,61%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,69%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>26,92%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,99%</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3793,12 +3793,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>31,87%</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>36,84%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,45%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,6%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,76%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,46%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -4498,7 +4498,7 @@
         <v>4823</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>3282052</v>
+        <v>3282053</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>28,79%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>29,2%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>22,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>18,96%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>34,02%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>48,33%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>36,09%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>37,89%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>44,83%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,29%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,55%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>25,46%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>21,02%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,39%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>34,75%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,77%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>27,67%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,87%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>30,47%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>27,13%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>30,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>32,4%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>261</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>277776</v>
+        <v>277775</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,25%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>56,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,26%</t>
+          <t>36,44%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>46,14%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>48,64%</t>
+          <t>48,78%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>22,86%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>19,41%</t>
+          <t>19,45%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,67%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>18,15%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,03%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>25,39%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>31,23%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>19,59%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>25,77%</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3313,12 +3313,12 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>38,38%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>66,03%</t>
+          <t>64,27%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>56,76%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,67%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>27,5%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>26,67%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3722,12 +3722,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,93%</t>
         </is>
       </c>
     </row>
@@ -3772,12 +3772,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3793,12 +3793,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3814,12 +3814,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>32,0%</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>38,43%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
@@ -3864,12 +3864,12 @@
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>38,09%</t>
         </is>
       </c>
       <c r="M48" s="2" t="n">
@@ -3885,12 +3885,12 @@
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>37,14%</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>25,3%</t>
         </is>
       </c>
     </row>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,38%</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
@@ -4152,12 +4152,12 @@
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
@@ -4173,12 +4173,12 @@
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,21%</t>
         </is>
       </c>
     </row>
@@ -4202,12 +4202,12 @@
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,42%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
@@ -4244,12 +4244,12 @@
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>25,6%</t>
+          <t>25,61%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>28,28%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>29,63%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>40,85%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -4344,12 +4344,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
@@ -4365,12 +4365,12 @@
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,64%</t>
         </is>
       </c>
     </row>
@@ -4415,12 +4415,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -4498,7 +4498,7 @@
         <v>4823</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>3282053</v>
+        <v>3282052</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
@@ -682,63 +682,63 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12207</v>
+        <v>15033</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>4839</v>
+        <v>5067</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>26</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>17046</v>
+        <v>20100</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,58%</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
         <v>90</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>66624</v>
+        <v>81477</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,48%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>126</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>64131</v>
+        <v>69511</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -788,28 +788,28 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>216</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>130755</v>
+        <v>150989</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>30,03%</t>
         </is>
       </c>
     </row>
@@ -824,63 +824,63 @@
         <v>62</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>56950</v>
+        <v>71373</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>30,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>149</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>73829</v>
+        <v>78579</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>211</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>130779</v>
+        <v>149952</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>30,23%</t>
         </is>
       </c>
     </row>
@@ -895,63 +895,63 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>42691</v>
+        <v>50230</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,84%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>82</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>39872</v>
+        <v>41986</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>136</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>82563</v>
+        <v>92216</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>19,14%</t>
         </is>
       </c>
     </row>
@@ -966,63 +966,63 @@
         <v>101</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>73154</v>
+        <v>82339</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,39%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
         <v>164</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>84408</v>
+        <v>89820</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
         <v>265</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>157562</v>
+        <v>172159</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
         <v>323</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>251626</v>
+        <v>300452</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>531</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>267079</v>
+        <v>284964</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>854</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>518705</v>
+        <v>585416</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1112,63 +1112,63 @@
         <v>43</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>61039</v>
+        <v>60129</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>98</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>73231</v>
+        <v>68505</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>141</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>134270</v>
+        <v>128635</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -1183,63 +1183,63 @@
         <v>135</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>167638</v>
+        <v>164854</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,19%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>248</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>184964</v>
+        <v>171748</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,79%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>383</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>352601</v>
+        <v>336602</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,89%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>45,22%</t>
         </is>
       </c>
     </row>
@@ -1254,63 +1254,63 @@
         <v>73</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>90246</v>
+        <v>87831</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>138</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>102435</v>
+        <v>94874</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>211</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>192681</v>
+        <v>182706</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>25,64%</t>
         </is>
       </c>
     </row>
@@ -1325,63 +1325,63 @@
         <v>28</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>35077</v>
+        <v>34241</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>49</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>33173</v>
+        <v>30726</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
         <v>77</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>68250</v>
+        <v>64968</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -1396,63 +1396,63 @@
         <v>38</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43305</v>
+        <v>41693</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>95</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>72382</v>
+        <v>67051</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
         <v>133</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>115686</v>
+        <v>108745</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,66%</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
         <v>317</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>397304</v>
+        <v>388750</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         <v>628</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>466185</v>
+        <v>432905</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>945</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>863489</v>
+        <v>821655</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1542,63 +1542,63 @@
         <v>30</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>30691</v>
+        <v>30977</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>35</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>28557</v>
+        <v>26613</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>65</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>59248</v>
+        <v>57590</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,67%</t>
         </is>
       </c>
     </row>
@@ -1613,63 +1613,63 @@
         <v>57</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>54589</v>
+        <v>53996</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>88</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>64875</v>
+        <v>60902</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>145</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>119465</v>
+        <v>114899</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -1684,28 +1684,28 @@
         <v>107</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>95554</v>
+        <v>93095</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
         <v>164</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>112640</v>
+        <v>105323</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1714,33 +1714,33 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
         <v>271</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>208194</v>
+        <v>198418</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>34,74%</t>
         </is>
       </c>
     </row>
@@ -1755,63 +1755,63 @@
         <v>54</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>42147</v>
+        <v>40613</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>105</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>69380</v>
+        <v>64718</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,34%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>159</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>111527</v>
+        <v>105331</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,58%</t>
         </is>
       </c>
     </row>
@@ -1826,32 +1826,32 @@
         <v>94</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>77496</v>
+        <v>75205</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>132</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>86097</v>
+        <v>80549</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1861,28 +1861,28 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>28,07%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>226</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>163593</v>
+        <v>155754</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>27,59%</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
         <v>342</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>300478</v>
+        <v>293887</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>524</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>361549</v>
+        <v>338105</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>866</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>662027</v>
+        <v>631992</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1972,11 +1972,11 @@
         <v>20</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>22461</v>
+        <v>21590</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1986,49 +1986,49 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>36</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>32900</v>
+        <v>30106</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>56</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>55361</v>
+        <v>51696</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -2043,63 +2043,63 @@
         <v>59</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>64478</v>
+        <v>62533</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
         <v>105</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>74286</v>
+        <v>69047</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
         <v>164</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>138765</v>
+        <v>131580</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>24,52%</t>
         </is>
       </c>
     </row>
@@ -2114,63 +2114,63 @@
         <v>56</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>66312</v>
+        <v>63573</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>31,12%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
         <v>136</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>99738</v>
+        <v>116225</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>48,75%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>192</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>166050</v>
+        <v>179798</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>40,04%</t>
         </is>
       </c>
     </row>
@@ -2185,63 +2185,63 @@
         <v>53</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>56163</v>
+        <v>54021</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
         <v>91</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>52158</v>
+        <v>48211</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>144</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>108321</v>
+        <v>102232</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -2256,63 +2256,63 @@
         <v>73</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>68361</v>
+        <v>64790</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
         <v>189</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>120167</v>
+        <v>110805</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>262</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>188528</v>
+        <v>175595</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>31,13%</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>261</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>277775</v>
+        <v>266507</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>557</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>379250</v>
+        <v>374394</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>818</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>657025</v>
+        <v>640901</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2402,63 +2402,63 @@
         <v>12</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>7965</v>
+        <v>7207</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
         <v>16</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>9073</v>
+        <v>8136</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>17038</v>
+        <v>15343</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -2473,16 +2473,16 @@
         <v>44</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>29909</v>
+        <v>27218</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -2494,42 +2494,42 @@
         <v>74</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>35004</v>
+        <v>31818</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
         <v>118</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>64912</v>
+        <v>59036</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -2544,63 +2544,63 @@
         <v>115</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>79881</v>
+        <v>72952</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>50,06%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>56,51%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
         <v>184</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>82757</v>
+        <v>74975</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,44%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>45,76%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
         <v>299</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>162637</v>
+        <v>147927</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>48,75%</t>
         </is>
       </c>
     </row>
@@ -2615,32 +2615,32 @@
         <v>40</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>27123</v>
+        <v>24421</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
         <v>101</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>43667</v>
+        <v>39473</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>21,58%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2650,28 +2650,28 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>26,44%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
         <v>141</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>70790</v>
+        <v>63894</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -2686,49 +2686,49 @@
         <v>24</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>15303</v>
+        <v>13938</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,73%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
         <v>72</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>31849</v>
+        <v>28874</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
         <v>96</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>47151</v>
+        <v>42811</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
         <v>235</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>160180</v>
+        <v>145736</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>447</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>202348</v>
+        <v>183275</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         <v>682</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>362528</v>
+        <v>329011</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2832,63 +2832,63 @@
         <v>37</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>35103</v>
+        <v>34768</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
         <v>31</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>24897</v>
+        <v>23244</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
         <v>68</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>60000</v>
+        <v>58012</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,33%</t>
         </is>
       </c>
     </row>
@@ -2903,32 +2903,32 @@
         <v>65</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>62002</v>
+        <v>60819</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
         <v>81</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>52754</v>
+        <v>49309</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2938,28 +2938,28 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
         <v>146</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>114757</v>
+        <v>110128</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,54%</t>
         </is>
       </c>
     </row>
@@ -2974,63 +2974,63 @@
         <v>101</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>73567</v>
+        <v>70860</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
         <v>121</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>74079</v>
+        <v>69164</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
         <v>222</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>147645</v>
+        <v>140025</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>31,11%</t>
         </is>
       </c>
     </row>
@@ -3045,32 +3045,32 @@
         <v>66</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>40626</v>
+        <v>39216</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
         <v>94</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>48993</v>
+        <v>45569</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -3080,28 +3080,28 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
         <v>160</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>89619</v>
+        <v>84785</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -3116,63 +3116,63 @@
         <v>87</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>55012</v>
+        <v>52890</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,56%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
         <v>124</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>65209</v>
+        <v>60696</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>28,9%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
         <v>211</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>120221</v>
+        <v>113586</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>25,58%</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>356</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>266310</v>
+        <v>258554</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
         <v>451</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>265933</v>
+        <v>247982</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>807</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>532242</v>
+        <v>506536</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3262,63 +3262,63 @@
         <v>34</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>30144</v>
+        <v>28983</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
         <v>40</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>30142</v>
+        <v>27983</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
         <v>74</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>60286</v>
+        <v>56967</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -3333,63 +3333,63 @@
         <v>79</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>89033</v>
+        <v>89612</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>17,92%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
         <v>158</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>117512</v>
+        <v>109526</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
         <v>237</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>206544</v>
+        <v>199138</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>15,48%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,23%</t>
         </is>
       </c>
     </row>
@@ -3404,63 +3404,63 @@
         <v>171</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>175948</v>
+        <v>172175</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>38,38%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
         <v>274</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>309072</v>
+        <v>389113</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>75,74%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
         <v>445</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>485020</v>
+        <v>561288</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>56,76%</t>
+          <t>67,87%</t>
         </is>
       </c>
     </row>
@@ -3475,63 +3475,63 @@
         <v>104</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>96055</v>
+        <v>93009</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
         <v>154</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>105337</v>
+        <v>98251</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
         <v>258</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>201392</v>
+        <v>191260</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,38%</t>
         </is>
       </c>
     </row>
@@ -3546,63 +3546,63 @@
         <v>125</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>120801</v>
+        <v>116415</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,5%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
         <v>256</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>174856</v>
+        <v>161537</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
         <v>381</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>295657</v>
+        <v>277953</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>26,15%</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
         <v>513</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>511981</v>
+        <v>500195</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>882</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>736919</v>
+        <v>786410</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>1395</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1248900</v>
+        <v>1286606</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
@@ -3692,28 +3692,28 @@
         <v>18</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>16585</v>
+        <v>14336</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
         <v>29</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>23552</v>
+        <v>19749</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
@@ -3722,23 +3722,23 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
         <v>47</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>40137</v>
+        <v>34085</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,94%</t>
         </is>
       </c>
     </row>
@@ -3763,28 +3763,28 @@
         <v>156</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>160144</v>
+        <v>136318</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
         <v>201</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>158090</v>
+        <v>132417</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
@@ -3793,33 +3793,33 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
         <v>357</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>318234</v>
+        <v>268735</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>32,04%</t>
         </is>
       </c>
     </row>
@@ -3834,37 +3834,37 @@
         <v>179</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>165529</v>
+        <v>140483</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="H48" s="2" t="n">
         <v>288</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>210214</v>
+        <v>176453</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
@@ -3876,11 +3876,11 @@
         <v>467</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>375742</v>
+        <v>316935</v>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>34,36%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -3905,63 +3905,63 @@
         <v>135</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>118965</v>
+        <v>101661</v>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="H49" s="2" t="n">
         <v>190</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>133299</v>
+        <v>111906</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="M49" s="2" t="n">
         <v>325</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>252265</v>
+        <v>213566</v>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>25,34%</t>
         </is>
       </c>
     </row>
@@ -3976,63 +3976,63 @@
         <v>31</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>28792</v>
+        <v>24710</v>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="H50" s="2" t="n">
         <v>95</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>77635</v>
+        <v>64265</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="M50" s="2" t="n">
         <v>126</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>106426</v>
+        <v>88975</v>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
         <v>519</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>490014</v>
+        <v>417508</v>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>803</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>602790</v>
+        <v>504789</v>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>1322</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>1092804</v>
+        <v>922296</v>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
@@ -4122,63 +4122,63 @@
         <v>210</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>216195</v>
+        <v>213024</v>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="H52" s="2" t="n">
         <v>295</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>227192</v>
+        <v>209403</v>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="M52" s="2" t="n">
         <v>505</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>443387</v>
+        <v>422427</v>
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,2%</t>
         </is>
       </c>
     </row>
@@ -4193,63 +4193,63 @@
         <v>685</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>694418</v>
+        <v>676828</v>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="H53" s="2" t="n">
         <v>1081</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>751616</v>
+        <v>694278</v>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>22,02%</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="M53" s="2" t="n">
         <v>1766</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>1446034</v>
+        <v>1371106</v>
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -4264,63 +4264,63 @@
         <v>864</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>803986</v>
+        <v>772343</v>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>32,05%</t>
         </is>
       </c>
       <c r="H54" s="2" t="n">
         <v>1454</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>1064763</v>
+        <v>1104707</v>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>32,44%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="M54" s="2" t="n">
         <v>2318</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>1868749</v>
+        <v>1877049</v>
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>41,64%</t>
         </is>
       </c>
     </row>
@@ -4335,63 +4335,63 @@
         <v>534</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>458847</v>
+        <v>437413</v>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H55" s="2" t="n">
         <v>866</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>525880</v>
+        <v>480839</v>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="M55" s="2" t="n">
         <v>1400</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>984728</v>
+        <v>918252</v>
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,2%</t>
         </is>
       </c>
     </row>
@@ -4406,63 +4406,63 @@
         <v>573</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>482223</v>
+        <v>471981</v>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="H56" s="2" t="n">
         <v>1127</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>712602</v>
+        <v>663598</v>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="M56" s="2" t="n">
         <v>1700</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>1194825</v>
+        <v>1135578</v>
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>21,08%</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
         <v>2866</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2655669</v>
+        <v>2571589</v>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>4823</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>3282052</v>
+        <v>3152825</v>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         <v>7689</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>5937722</v>
+        <v>5724413</v>
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P39B_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+          <t>Población según lo que piensan que es lo mejor que se puede hacer cuando creen que a alguien le está dando un ataque al corazón en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,79 +708,127 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>15033</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>5067</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>20100</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>81477</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>9471</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>69511</v>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>6893</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>150989</v>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10966</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>11366</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7368</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>17724</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>71373</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>292039</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>282131</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>298758</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,32%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>78579</v>
+          <t>93,77%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>90,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>95,93%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>502</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>273019</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>149952</v>
+          <t>265484</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>278397</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>94,26%</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>565057</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>553887</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>574948</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>94,01%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>92,15%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>95,65%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>50230</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14931</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>9178</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>24454</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>41986</v>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>9723</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>92216</v>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16357</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>24654</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>17092</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>34201</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -959,70 +1175,112 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>82339</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>89820</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>172159</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1032</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
         </is>
       </c>
     </row>
@@ -1033,20 +1291,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>323</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>300452</v>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>311443</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>311443</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>311443</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1054,32 +1316,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>531</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>284964</v>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>289635</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>854</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>585416</v>
+          <t>289635</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>289635</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1092,6 +1362,36 @@
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1100,75 +1400,117 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>60129</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15068</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>8772</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>25062</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>68505</v>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,04%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>10066</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>128635</v>
+          <t>5951</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16147</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25134</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16559</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>35262</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>164854</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17909</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,41%</t>
+          <t>10083</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>35180</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,79%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>248</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>171748</v>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>10210</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,79%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>383</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>336602</v>
+          <t>5678</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16887</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>28119</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>18351</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>44506</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>87831</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>448737</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>429901</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>462050</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>94874</v>
+          <t>90,29%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>86,5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>92,96%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>626</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>452336</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>182706</v>
+          <t>439018</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>461800</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>92,8%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>901073</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>877591</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>917212</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>91,53%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>89,15%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>93,17%</t>
         </is>
       </c>
     </row>
@@ -1318,70 +1744,112 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>34241</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12729</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>6479</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>23024</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>30726</v>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>13242</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>64968</v>
+          <t>7028</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24575</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>25971</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>15877</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>41262</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -1389,70 +1857,112 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>41693</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2579</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8742</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>67051</v>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>108745</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5359</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4153</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1123</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>11457</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1463,20 +1973,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>317</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>388750</v>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>497022</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>497022</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>497022</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1484,32 +1998,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>628</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>432905</v>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>487427</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>945</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>821655</v>
+          <t>487427</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>487427</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1522,6 +2044,36 @@
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>984449</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>984449</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>984449</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1530,75 +2082,117 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>30977</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8481</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>14651</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>26613</v>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>10051</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>57590</v>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16288</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>18532</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>12402</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>27128</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>53996</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>60902</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>145</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>114899</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>4630</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -1677,70 +2313,112 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>93095</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>277694</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>268547</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>284719</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>105323</v>
+          <t>91,86%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>88,83%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>94,18%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>461</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>306798</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>271</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>198418</v>
+          <t>298975</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>313886</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>92,32%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>584492</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>572852</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>594637</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>90,27%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>93,7%</t>
         </is>
       </c>
     </row>
@@ -1748,70 +2426,112 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>40613</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10625</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>6461</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>17102</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>64718</v>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>11589</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>105331</v>
+          <t>7339</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17705</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>22214</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>15818</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>30974</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -1819,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>75205</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5505</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>2119</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>10284</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>30,66%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>80549</v>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>2619</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>226</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>155754</v>
+          <t>739</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5941</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>8124</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>4059</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>13369</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1893,20 +2655,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>293887</v>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>302305</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>302305</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>302305</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1914,32 +2680,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>524</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>338105</v>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>507</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>332312</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>866</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>631992</v>
+          <t>332312</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>332312</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1952,6 +2726,36 @@
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>634616</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>634616</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>634616</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -1965,70 +2769,112 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>21590</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>30106</v>
+          <t>0,29%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>51696</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>7130</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2760</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>7847</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -2036,70 +2882,112 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>62533</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>69047</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>131580</v>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>7333</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2437</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>6944</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2995,112 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>63573</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>297269</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>291592</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>300075</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>116225</v>
+          <t>98,74%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>96,85%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>99,67%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>545</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>445145</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>192</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>179798</v>
+          <t>436990</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>450770</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>97,66%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>28,05%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>98,9%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>742412</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>733685</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>748653</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>98,09%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>96,94%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>98,91%</t>
         </is>
       </c>
     </row>
@@ -2178,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>54021</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2917</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>721</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>8654</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>48211</v>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>102232</v>
+          <t>2322</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11763</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>8449</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>16289</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -2249,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>64790</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>110805</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>817</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>175595</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2945</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>0,11%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
         </is>
       </c>
     </row>
@@ -2323,20 +3337,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>266507</v>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>301071</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>301071</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>301071</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -2344,32 +3362,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>557</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>374394</v>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>562</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>455806</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>818</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>640901</v>
+          <t>455806</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>455806</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
@@ -2382,6 +3408,36 @@
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>756876</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>756876</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>756876</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2395,70 +3451,112 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>7207</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>8136</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>15343</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -2466,70 +3564,112 @@
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>27218</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>31818</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>118</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>59036</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
         </is>
       </c>
     </row>
@@ -2537,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>72952</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>177267</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>174398</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>178293</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>56,51%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>184</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>74975</v>
+          <t>99,17%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>97,57%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>99,75%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>205196</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>299</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>147927</v>
+          <t>202153</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>206952</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>98,52%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>44,96%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>40,9%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>382463</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>378813</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>384652</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>98,82%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>97,88%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>99,39%</t>
         </is>
       </c>
     </row>
@@ -2608,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>24421</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>3408</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>39473</v>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>2323</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>63894</v>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>5417</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>3009</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>6834</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -2679,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>13938</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>28874</v>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,09%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>755</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>19,46%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>42811</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>2492</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>3881</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -2753,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>145736</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>178742</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>178742</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>178742</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2774,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>447</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>183275</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>491</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>208274</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>682</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>329011</v>
+          <t>208274</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>208274</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2812,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>387016</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>387016</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>387016</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2820,75 +4128,117 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>34768</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>4860</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>23244</v>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>58012</v>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>7083</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
         </is>
       </c>
     </row>
@@ -2896,70 +4246,112 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>60819</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>2923</t>
+        </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>795</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>7100</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>49309</v>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>2703</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>110128</v>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>5626</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>10454</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -2967,70 +4359,112 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>70860</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>218365</t>
+        </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>206930</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>227832</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>69164</v>
+          <t>84,38%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>79,96%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>88,03%</t>
+        </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>344</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>209765</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>140025</v>
+          <t>202404</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>216387</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>88,0%</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>84,91%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>428130</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>414415</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>440542</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>86,11%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>83,35%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>88,61%</t>
         </is>
       </c>
     </row>
@@ -3038,70 +4472,112 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>39216</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>17379</t>
+        </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>11404</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>25027</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>45569</v>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>16168</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>84785</v>
+          <t>11722</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>21449</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>33547</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>26324</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>43495</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
         </is>
       </c>
     </row>
@@ -3109,70 +4585,112 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>52890</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>19030</t>
+        </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>11854</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>60696</v>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>7820</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>28,85%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>113586</v>
+          <t>4120</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>13899</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>26851</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>18064</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>36897</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -3183,20 +4701,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>356</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>258554</v>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>258801</t>
+        </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>258801</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>258801</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -3204,32 +4726,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>451</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>247982</v>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>411</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>238381</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>807</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>506536</v>
+          <t>238381</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>238381</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3242,6 +4772,36 @@
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>497182</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>497182</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>497182</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -3250,75 +4810,117 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>28983</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>2927</t>
+        </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>859</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>8623</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>27983</v>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>6457</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>56967</v>
+          <t>2265</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>12231</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>9384</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>4994</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>18337</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -3326,70 +4928,112 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>89612</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>3368</t>
+        </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>964</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>9026</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>109526</v>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>13,93%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>237</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>199138</v>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>14207</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>10738</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>5178</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>19413</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
         </is>
       </c>
     </row>
@@ -3397,70 +5041,112 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>171</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>172175</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>597016</t>
+        </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>587751</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>603327</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>274</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>389113</v>
+          <t>97,71%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>96,19%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>98,74%</t>
+        </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>903</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>813649</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>75,74%</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>445</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>561288</v>
+          <t>799158</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>828347</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>96,79%</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>1471</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>1410663</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>1395011</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>1427034</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>97,18%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>96,1%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>98,31%</t>
         </is>
       </c>
     </row>
@@ -3468,70 +5154,112 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>93009</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>11722</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>98251</v>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>1,92%</t>
+        </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>191260</v>
+          <t>2691</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>12860</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>11637</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>5767</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>19299</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -3539,70 +5267,112 @@
       <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>116415</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>2563</t>
+        </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,27%</t>
+          <t>708</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>7625</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>256</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>161537</v>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>6635</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>381</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>277953</v>
+          <t>1921</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>17419</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>9198</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>4029</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>20143</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
         </is>
       </c>
     </row>
@@ -3613,20 +5383,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>513</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>500195</v>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>611014</t>
+        </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>611014</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>611014</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
@@ -3634,32 +5408,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>882</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>786410</v>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>944</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>840607</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>1395</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>1286606</v>
+          <t>840607</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>840607</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
@@ -3672,6 +5454,36 @@
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>1451620</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>1451620</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>1451620</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -3685,70 +5497,112 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>14336</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>19749</v>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>1211</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>34085</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -3756,70 +5610,112 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>136318</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>10233</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>201</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>132417</v>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>2309</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>357</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>268735</v>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>5276</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>1212</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>10005</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>0,23%</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -3827,70 +5723,112 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>179</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>140483</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>875229</t>
+        </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>849896</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>909308</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>176453</v>
+          <t>94,24%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>91,51%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>97,91%</t>
+        </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>992</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>677335</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>467</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>316935</v>
+          <t>667289</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>686056</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>94,37%</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>1552565</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>1527476</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>1595307</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>94,3%</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>92,77%</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -3898,70 +5836,112 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>101661</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>35532</t>
+        </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>12305</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>53917</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>190</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>111906</v>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>45</t>
         </is>
       </c>
       <c r="K49" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>25500</t>
         </is>
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>25,15%</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>325</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>213566</v>
+          <t>18151</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>33644</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
       </c>
       <c r="O49" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>61032</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>34142</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>78713</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -3969,70 +5949,112 @@
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>24710</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>16401</t>
+        </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5635</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>28696</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>64265</v>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K50" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>11376</t>
         </is>
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>88975</v>
+          <t>6667</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>17548</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
       </c>
       <c r="O50" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>27777</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>16113</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>41014</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -4043,20 +6065,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>519</v>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>417508</v>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>928720</t>
+        </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>928720</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>928720</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
@@ -4064,32 +6090,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>803</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>504789</v>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>717731</t>
         </is>
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>1322</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>922296</v>
+          <t>717731</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>717731</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O51" s="2" t="inlineStr">
         <is>
@@ -4102,6 +6136,36 @@
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>1646452</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>1646452</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>1646452</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -4115,70 +6179,112 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Más de 3 años</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>213024</v>
+          <t>Otra</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>28465</t>
+        </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>18851</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>41030</t>
         </is>
       </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>209403</v>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>31584</t>
         </is>
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>505</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>422427</v>
+          <t>22956</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>42213</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
       </c>
       <c r="O52" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>60049</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>46928</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>74841</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -4186,70 +6292,112 @@
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Entre uno y tres años</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>676828</v>
+          <t>Que llamen a la pareja o a un familiar</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>30232</t>
+        </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>18415</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>46461</t>
         </is>
       </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>1081</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>694278</v>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
       </c>
       <c r="J53" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>33177</t>
         </is>
       </c>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>1766</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>1371106</v>
+          <t>24183</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>44956</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
       </c>
       <c r="O53" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>63409</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>49463</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr">
+        <is>
+          <t>83598</t>
+        </is>
+      </c>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="W53" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -4257,70 +6405,112 @@
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Entre seis meses y un año</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>864</v>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>772343</v>
+          <t>Que llamen a emergencias (061 o 112)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>3183614</t>
+        </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>3148228</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>3230814</t>
         </is>
       </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>1454</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>1104707</v>
+          <t>93,94%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>92,89%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>95,33%</t>
+        </is>
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>3383242</t>
         </is>
       </c>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
-        </is>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>2318</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>1877049</v>
+          <t>3352878</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>3420231</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>94,76%</t>
+        </is>
       </c>
       <c r="O54" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
         <is>
-          <t>41,64%</t>
+          <t>7886</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>6566857</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>6522834</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>6623232</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t>94,36%</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>93,73%</t>
+        </is>
+      </c>
+      <c r="W54" s="2" t="inlineStr">
+        <is>
+          <t>95,17%</t>
         </is>
       </c>
     </row>
@@ -4328,70 +6518,112 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>3 a 5 meses</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>534</v>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>437413</v>
+          <t>Aconsejarles que llamen a su médico/a</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>99940</t>
+        </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>78626</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>123591</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>866</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>480839</v>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
       </c>
       <c r="J55" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>90573</t>
         </is>
       </c>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
-        </is>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>1400</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>918252</v>
+          <t>69773</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>110088</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
+        </is>
       </c>
       <c r="O55" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>190513</t>
+        </is>
+      </c>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>216101</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="W55" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -4399,70 +6631,112 @@
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Menos de 3 meses</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>471981</v>
+          <t>Aconsejarles que conduzcan hasta el hospital</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>46866</t>
+        </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>32964</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>63600</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>1127</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>663598</v>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>31597</t>
         </is>
       </c>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
-        </is>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>1135578</v>
+          <t>22019</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>44592</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>0,89%</t>
+        </is>
       </c>
       <c r="O56" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>78463</t>
+        </is>
+      </c>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>61243</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="inlineStr">
+        <is>
+          <t>95942</t>
+        </is>
+      </c>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="V56" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -4473,20 +6747,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>2866</v>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>2571589</v>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>3287</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>3389117</t>
+        </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3389117</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3389117</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
@@ -4494,32 +6772,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H57" s="2" t="n">
-        <v>4823</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>3152825</v>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J57" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>5190</t>
         </is>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3570173</t>
         </is>
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>7689</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>5724413</v>
+          <t>3570173</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>3570173</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O57" s="2" t="inlineStr">
         <is>
@@ -4532,6 +6818,36 @@
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr">
+        <is>
+          <t>6959290</t>
+        </is>
+      </c>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W57" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -4546,19 +6862,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A52:A57"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
